--- a/saltmarsh/original_fieldsheets/marinegeo_marsh_plant_cover_datasheet.xlsx
+++ b/saltmarsh/original_fieldsheets/marinegeo_marsh_plant_cover_datasheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CollabProj\MarineGEO SERC\Marsh Plant Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\saltmarsh\original_fieldsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E17FEB0-0183-4501-95B3-6477CA640F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0684DBC-5F8B-494B-81C6-F9B3DC8806E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Species</t>
   </si>
@@ -96,20 +96,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Latitude of transect beginning </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>Date (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Salt Marsh Plant Cover Data</t>
   </si>
   <si>
     <r>
@@ -133,87 +126,9 @@
       </rPr>
       <t xml:space="preserve"> MarineGEO Site Codes can be found at marinegeo.github.io/standards; </t>
     </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In Decimal Degrees to 5 decimal places (e.g. -43.12345, 142.12345)	</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Latitidue of transect ending  </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Longitude of transect beginning </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Longitude of transect ending</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-  </si>
-  <si>
-    <t>Date (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Cover Classes: ("+" = &lt;1%) ("1" = 1-5%) ("2" = 5-25%) ("3" = 25-50%) ("4" = 50-75%) ("5" = 75-100%)</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Salt Marsh Plant Cover Data</t>
+  </si>
+  <si>
+    <t>Cover Classes: ("0" = 0%, "+" = &lt;1%) ("1" = 1-5%) ("2" = 5-25%) ("3" = 25-50%) ("4" = 50-75%) ("5" = 75-100%)</t>
   </si>
 </sst>
 </file>
@@ -299,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -429,97 +344,52 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -576,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -599,7 +469,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -609,53 +479,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -938,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Y35"/>
+  <dimension ref="B1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,127 +813,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="26"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="2:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="33"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="15"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="14"/>
-      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
@@ -1100,6 +955,15 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
     </row>
     <row r="14" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -1109,6 +973,15 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
     </row>
     <row r="15" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1119,11 +992,11 @@
       <c r="G15" s="6"/>
       <c r="H15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
+      <c r="V15" s="1"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
@@ -1137,16 +1010,16 @@
       <c r="G16" s="6"/>
       <c r="H16" s="14"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="1"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
-    <row r="17" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1154,17 +1027,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-    </row>
-    <row r="18" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1172,18 +1036,9 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-    </row>
-    <row r="19" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+    </row>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1191,7 +1046,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1200,7 +1055,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1209,8 +1064,8 @@
       <c r="G21" s="6"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1218,7 +1073,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1227,126 +1082,109 @@
       <c r="G23" s="6"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+    <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+    <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+    <row r="31" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="14"/>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B1:G2"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14896194.v1</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>